--- a/projects/patch_empty_app/src/shasta_pmbus.xlsx
+++ b/projects/patch_empty_app/src/shasta_pmbus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seetweireniv\Documents\Digital_Workspace\Shasta_SG\shasta_projects\projects\patch_empty_app\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seetweireniv\Documents\Digital_Workspace\Shasta_CUS\shasta_projects\projects\patch_empty_app\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6112B8-40DF-4918-BB91-A3681AC4E5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE121AA-91AF-4C88-932F-3EAF4541E55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shasta" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13830" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13828" uniqueCount="1090">
   <si>
     <t>Opcode</t>
   </si>
@@ -4795,2905 +4795,7 @@
     <cellStyle name="Total" xfId="20" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="17" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="587">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="173">
     <dxf>
       <fill>
         <patternFill>
@@ -8929,9 +6031,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8969,9 +6071,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9004,26 +6106,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9056,26 +6141,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9252,10 +6320,10 @@
   <dimension ref="A1:BW279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF181" sqref="AF181"/>
+      <selection pane="bottomRight" activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -43708,7 +40776,7 @@
         <v>576</v>
       </c>
       <c r="E179" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F179" s="9" t="s">
         <v>65</v>
@@ -43718,27 +40786,23 @@
       </c>
       <c r="H179" s="9"/>
       <c r="I179" s="9" t="s">
-        <v>101</v>
+        <v>786</v>
       </c>
       <c r="J179" s="9">
-        <v>16</v>
-      </c>
-      <c r="K179" s="9" t="s">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K179" s="9"/>
       <c r="L179" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M179" s="9"/>
       <c r="N179" s="9" t="s">
-        <v>101</v>
+        <v>786</v>
       </c>
       <c r="O179" s="9">
-        <v>16</v>
-      </c>
-      <c r="P179" s="9" t="s">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P179" s="9"/>
       <c r="Q179" s="10"/>
       <c r="R179" s="10"/>
       <c r="S179" s="10"/>
@@ -44092,7 +41156,7 @@
         <v>576</v>
       </c>
       <c r="E181" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F181" s="9"/>
       <c r="G181" s="9" t="s">
@@ -44271,7 +41335,7 @@
         <v>576</v>
       </c>
       <c r="E182" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F182" s="9"/>
       <c r="G182" s="9" t="s">
@@ -44450,7 +41514,7 @@
         <v>576</v>
       </c>
       <c r="E183" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F183" s="9"/>
       <c r="G183" s="9" t="s">
@@ -44629,7 +41693,7 @@
         <v>576</v>
       </c>
       <c r="E184" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9" t="s">
@@ -44808,7 +41872,7 @@
         <v>576</v>
       </c>
       <c r="E185" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9" t="s">
@@ -44987,7 +42051,7 @@
         <v>576</v>
       </c>
       <c r="E186" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9" t="s">
@@ -45166,7 +42230,7 @@
         <v>576</v>
       </c>
       <c r="E187" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F187" s="9"/>
       <c r="G187" s="9" t="s">
@@ -45345,7 +42409,7 @@
         <v>576</v>
       </c>
       <c r="E188" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F188" s="9"/>
       <c r="G188" s="9" t="s">
@@ -45524,7 +42588,7 @@
         <v>576</v>
       </c>
       <c r="E189" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F189" s="9"/>
       <c r="G189" s="9" t="s">
@@ -45882,7 +42946,7 @@
         <v>576</v>
       </c>
       <c r="E191" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F191" s="9"/>
       <c r="G191" s="9" t="s">
@@ -46240,7 +43304,7 @@
         <v>64</v>
       </c>
       <c r="E193" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F193" s="9"/>
       <c r="G193" s="9" t="s">
@@ -58601,7 +55665,7 @@
       </c>
       <c r="J259" s="20">
         <f>SUM(J2:J257)</f>
-        <v>4008</v>
+        <v>3992</v>
       </c>
       <c r="K259" s="20"/>
       <c r="L259" s="34"/>
@@ -58611,7 +55675,7 @@
       </c>
       <c r="O259" s="20">
         <f>SUM(O2:O257)</f>
-        <v>4000</v>
+        <v>3984</v>
       </c>
       <c r="P259" s="34"/>
       <c r="Q259" s="36"/>
@@ -60026,2939 +57090,869 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AE257" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="G42 T4 AG4 G2:K41">
-    <cfRule type="expression" dxfId="586" priority="923">
+  <conditionalFormatting sqref="F2:F257">
+    <cfRule type="expression" dxfId="172" priority="137">
       <formula>$G2="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43 G110:K138 G109 G153 G139 G168:I168 G164:G165 G169 G166:H167 G226:K229 G239:K239 G257:K257 G232:K233 G140:K152 G171:K178 G162:I163 G170:I170 G235:K237 G44:K76 G210:K211 G78:K83 G77:H77 J77:K77 G86:K92 G84:H85 J84:K85 G95:K108 G154:K161 G180:K196 G179:H179">
-    <cfRule type="expression" dxfId="585" priority="861">
-      <formula>$G43="n"</formula>
+  <conditionalFormatting sqref="G42:G43 G77:H77 G84:H85 G162:I163 G164:G165">
+    <cfRule type="expression" dxfId="171" priority="861">
+      <formula>$G42="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G204:G207">
+    <cfRule type="expression" dxfId="170" priority="630">
+      <formula>$G204="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G199:H199 J199:K199">
+    <cfRule type="expression" dxfId="169" priority="817">
+      <formula>$G199="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G202:H203">
+    <cfRule type="expression" dxfId="168" priority="483">
+      <formula>$G202="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G208:H209">
+    <cfRule type="expression" dxfId="167" priority="767">
+      <formula>$G208="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G216:H216">
+    <cfRule type="expression" dxfId="166" priority="725">
+      <formula>$G216="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G212:J215">
+    <cfRule type="expression" dxfId="165" priority="139">
+      <formula>$G212="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G86:K108">
+    <cfRule type="expression" dxfId="164" priority="591">
+      <formula>$G86="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G200:K201">
+    <cfRule type="expression" dxfId="163" priority="438">
+      <formula>$G200="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G255:K255 G256:H256 J256:K256">
+    <cfRule type="expression" dxfId="162" priority="811">
+      <formula>$G255="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109:M109">
+    <cfRule type="expression" dxfId="161" priority="612">
+      <formula>$G109="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G254:M254">
+    <cfRule type="expression" dxfId="160" priority="140">
+      <formula>$G254="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:P41">
+    <cfRule type="expression" dxfId="159" priority="99">
+      <formula>$G2="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:P76">
+    <cfRule type="expression" dxfId="158" priority="96">
+      <formula>$G44="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G110:P161">
+    <cfRule type="expression" dxfId="157" priority="89">
+      <formula>$G110="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G166:P198">
+    <cfRule type="expression" dxfId="156" priority="1">
+      <formula>$G166="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G210:P211">
+    <cfRule type="expression" dxfId="155" priority="631">
+      <formula>$G210="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G217:P253">
+    <cfRule type="expression" dxfId="154" priority="79">
+      <formula>$G217="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:I42">
+    <cfRule type="expression" dxfId="153" priority="859">
+      <formula>$G42="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:I43">
-    <cfRule type="expression" dxfId="584" priority="932">
+    <cfRule type="expression" dxfId="152" priority="932">
       <formula>$G42="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42:I42">
-    <cfRule type="expression" dxfId="583" priority="859">
+  <conditionalFormatting sqref="H164:I164">
+    <cfRule type="expression" dxfId="151" priority="850">
+      <formula>$G164="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H207:I207">
+    <cfRule type="expression" dxfId="150" priority="782">
+      <formula>$G206="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H165:K165">
+    <cfRule type="expression" dxfId="149" priority="848">
+      <formula>$G165="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H204:K206">
+    <cfRule type="expression" dxfId="148" priority="148">
+      <formula>$G204="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I203">
+    <cfRule type="expression" dxfId="147" priority="86">
+      <formula>$G203="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I208">
+    <cfRule type="expression" dxfId="146" priority="761">
+      <formula>$G207="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J162:K164">
+    <cfRule type="expression" dxfId="145" priority="755">
+      <formula>$G162="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J207:K209">
+    <cfRule type="expression" dxfId="144" priority="753">
+      <formula>$G207="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:L43 J77:M77 O77:P77 G78:P83 J84:M85 O84:P85 L108:M108 L162:N163 L164:L165 G257:P257">
+    <cfRule type="expression" dxfId="143" priority="683">
       <formula>$G42="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109 J109:K109">
-    <cfRule type="expression" dxfId="582" priority="858">
-      <formula>$G109="n"</formula>
+  <conditionalFormatting sqref="J202:M203">
+    <cfRule type="expression" dxfId="142" priority="482">
+      <formula>$G202="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H153:K153">
-    <cfRule type="expression" dxfId="581" priority="856">
-      <formula>$G153="n"</formula>
+  <conditionalFormatting sqref="J216:M216 O216:P216">
+    <cfRule type="expression" dxfId="141" priority="659">
+      <formula>$G216="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H139:K139">
-    <cfRule type="expression" dxfId="580" priority="852">
-      <formula>$G139="n"</formula>
+  <conditionalFormatting sqref="K212:K214">
+    <cfRule type="expression" dxfId="140" priority="104">
+      <formula>$G212="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H164:I164">
-    <cfRule type="expression" dxfId="579" priority="850">
+  <conditionalFormatting sqref="L205:L207">
+    <cfRule type="expression" dxfId="139" priority="667">
+      <formula>$G205="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L199:M200">
+    <cfRule type="expression" dxfId="138" priority="674">
+      <formula>$G199="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L208:M209">
+    <cfRule type="expression" dxfId="137" priority="666">
+      <formula>$G208="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L255:M256">
+    <cfRule type="expression" dxfId="136" priority="671">
+      <formula>$G255="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L212:O215">
+    <cfRule type="expression" dxfId="135" priority="109">
+      <formula>$G212="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L86:P107">
+    <cfRule type="expression" dxfId="134" priority="95">
+      <formula>$G86="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L201:P201">
+    <cfRule type="expression" dxfId="133" priority="437">
+      <formula>$G201="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L204:P204">
+    <cfRule type="expression" dxfId="132" priority="629">
+      <formula>$G204="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M42:N42">
+    <cfRule type="expression" dxfId="131" priority="440">
+      <formula>$G42="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:N43">
+    <cfRule type="expression" dxfId="130" priority="685">
+      <formula>$G42="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M164:N164">
+    <cfRule type="expression" dxfId="129" priority="678">
       <formula>$G164="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H165:K165">
-    <cfRule type="expression" dxfId="578" priority="848">
+  <conditionalFormatting sqref="M207:N207">
+    <cfRule type="expression" dxfId="128" priority="668">
+      <formula>$G206="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M165:P165">
+    <cfRule type="expression" dxfId="127" priority="677">
       <formula>$G165="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H169:I169">
-    <cfRule type="expression" dxfId="577" priority="846">
-      <formula>$G169="n"</formula>
+  <conditionalFormatting sqref="M205:P206">
+    <cfRule type="expression" dxfId="126" priority="655">
+      <formula>$G205="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I166:K167">
-    <cfRule type="expression" dxfId="576" priority="844">
-      <formula>$G166="n"</formula>
+  <conditionalFormatting sqref="N203">
+    <cfRule type="expression" dxfId="125" priority="85">
+      <formula>$G203="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5">
-    <cfRule type="expression" dxfId="575" priority="831">
-      <formula>$G5="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G208:H208 G197:K198 G205:G206 I205:K206 G203:H203 J203:K203 G200:K200 G199:H199 J199:K199">
-    <cfRule type="expression" dxfId="574" priority="817">
-      <formula>$G197="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G217:K225 G213:J215">
-    <cfRule type="expression" dxfId="573" priority="815">
-      <formula>$G213="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G238:K238">
-    <cfRule type="expression" dxfId="572" priority="813">
-      <formula>$G238="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G240:K253 G255:K255 G256:H256 J256:K256">
-    <cfRule type="expression" dxfId="571" priority="811">
-      <formula>$G240="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G231:K231">
-    <cfRule type="expression" dxfId="570" priority="809">
-      <formula>$G231="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G234:K234">
-    <cfRule type="expression" dxfId="569" priority="805">
-      <formula>$G234="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G207">
-    <cfRule type="expression" dxfId="568" priority="781">
+  <conditionalFormatting sqref="N208">
+    <cfRule type="expression" dxfId="124" priority="665">
       <formula>$G207="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H207:I207">
-    <cfRule type="expression" dxfId="567" priority="782">
-      <formula>$G206="n"</formula>
+  <conditionalFormatting sqref="N254:N255">
+    <cfRule type="expression" dxfId="123" priority="78">
+      <formula>$G254="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G209:H209 J209:K209">
-    <cfRule type="expression" dxfId="566" priority="767">
-      <formula>$G209="n"</formula>
+  <conditionalFormatting sqref="N108:P109">
+    <cfRule type="expression" dxfId="122" priority="610">
+      <formula>$G108="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I208">
-    <cfRule type="expression" dxfId="565" priority="761">
+  <conditionalFormatting sqref="N200:P200">
+    <cfRule type="expression" dxfId="121" priority="87">
+      <formula>$G200="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42:P43">
+    <cfRule type="expression" dxfId="120" priority="663">
+      <formula>$G42="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O162:P164">
+    <cfRule type="expression" dxfId="119" priority="662">
+      <formula>$G162="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O199:P199">
+    <cfRule type="expression" dxfId="118" priority="502">
+      <formula>$G199="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O202:P203">
+    <cfRule type="expression" dxfId="117" priority="447">
+      <formula>$G202="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O207:P209">
+    <cfRule type="expression" dxfId="116" priority="660">
       <formula>$G207="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:K42">
-    <cfRule type="expression" dxfId="564" priority="757">
-      <formula>$G42="n"</formula>
+  <conditionalFormatting sqref="O254:P256">
+    <cfRule type="expression" dxfId="115" priority="141">
+      <formula>$G254="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:K43">
-    <cfRule type="expression" dxfId="563" priority="756">
-      <formula>$G43="n"</formula>
+  <conditionalFormatting sqref="P212:P214">
+    <cfRule type="expression" dxfId="114" priority="103">
+      <formula>$G212="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J162:K164">
-    <cfRule type="expression" dxfId="562" priority="755">
-      <formula>$G162="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J168:K170">
-    <cfRule type="expression" dxfId="561" priority="754">
-      <formula>$G168="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J207:K208">
-    <cfRule type="expression" dxfId="560" priority="753">
-      <formula>$G207="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G216:H216 J216:K216">
-    <cfRule type="expression" dxfId="559" priority="725">
-      <formula>$G216="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G230 I230:K230">
-    <cfRule type="expression" dxfId="558" priority="723">
-      <formula>$G230="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H230">
-    <cfRule type="expression" dxfId="557" priority="721">
-      <formula>$G230="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H205">
-    <cfRule type="expression" dxfId="556" priority="720">
-      <formula>$G205="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H206">
-    <cfRule type="expression" dxfId="555" priority="719">
-      <formula>$G206="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L42 L2:P3 L5:P24 L4 N4:P4 L39:P41 L36:L37 N36:P37 L27:P28 L25:M26 O25:P26 L30:P35 L29:M29 O29:P29 L38:M38 O38:P38">
-    <cfRule type="expression" dxfId="554" priority="684">
-      <formula>$G2="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43 L110:P138 L109 L153 L139 L168:N168 L164:L165 L169 L166:M167 L210:P210 L226:P229 L239:P239 L257:P257 L232:P233 L140:P142 L171:P177 L162:N163 L170:N170 L235:P237 L44:P51 L154:P154 L78:P83 L77:M77 O77:P77 L86:P88 L84:M85 O84:P85 L108:M108 O108:P108 L95:P98 L146:P152 L143:L145 N143:P145 L101:P102 L99:L100 N99:P100 L105:P107 L103:L104 N103:P104 L58:P76 L57 N57:P57 L54:P54 L52:M53 O52:P53 L56:P56 L55:M55 O55:P55 L90:P92 L89:M89 O89:P89 L161:P161 L155:M160 O155:P160 L180:P196 O178:P178 L178:M179">
-    <cfRule type="expression" dxfId="553" priority="683">
-      <formula>$G43="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M43:N43">
-    <cfRule type="expression" dxfId="552" priority="685">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N42">
-    <cfRule type="expression" dxfId="551" priority="682">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M109 O109:P109">
-    <cfRule type="expression" dxfId="550" priority="681">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M153:P153">
-    <cfRule type="expression" dxfId="549" priority="680">
-      <formula>$G153="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M139:P139">
-    <cfRule type="expression" dxfId="548" priority="679">
-      <formula>$G139="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M164:N164">
-    <cfRule type="expression" dxfId="547" priority="678">
-      <formula>$G164="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M165:P165">
-    <cfRule type="expression" dxfId="546" priority="677">
-      <formula>$G165="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M169:N169">
-    <cfRule type="expression" dxfId="545" priority="676">
-      <formula>$G169="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N166:P167">
-    <cfRule type="expression" dxfId="544" priority="675">
-      <formula>$G166="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L208:M208 L197:P198 L205:L206 N205:P206 L203:M203 L199:M200">
-    <cfRule type="expression" dxfId="543" priority="674">
-      <formula>$G197="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L213:O213 L217:P219 L221:P221 L220:M220 L215:O215 L214:M214 O214 L223:P225 L222:M222 O222:P222">
-    <cfRule type="expression" dxfId="542" priority="673">
-      <formula>$G213="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L238:P238">
-    <cfRule type="expression" dxfId="541" priority="672">
-      <formula>$G238="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L240:P241 L248:P253 L246:M247 L245:P245 O242:P242 L242:M244 L255:M256 O255:P256">
-    <cfRule type="expression" dxfId="540" priority="671">
-      <formula>$G240="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L231:P231">
-    <cfRule type="expression" dxfId="539" priority="670">
-      <formula>$G231="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L234:P234">
-    <cfRule type="expression" dxfId="538" priority="669">
-      <formula>$G234="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L207">
-    <cfRule type="expression" dxfId="537" priority="667">
-      <formula>$G207="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M207:N207">
-    <cfRule type="expression" dxfId="536" priority="668">
-      <formula>$G206="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L209:M209 O209:P209">
-    <cfRule type="expression" dxfId="535" priority="666">
-      <formula>$G209="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N208">
-    <cfRule type="expression" dxfId="534" priority="665">
-      <formula>$G207="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O42:P42">
-    <cfRule type="expression" dxfId="533" priority="664">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O43:P43">
-    <cfRule type="expression" dxfId="532" priority="663">
-      <formula>$G43="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O162:P164">
-    <cfRule type="expression" dxfId="531" priority="662">
-      <formula>$G162="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O168:P170">
-    <cfRule type="expression" dxfId="530" priority="661">
-      <formula>$G168="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O207:P208">
-    <cfRule type="expression" dxfId="529" priority="660">
-      <formula>$G207="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L216:M216 O216:P216">
-    <cfRule type="expression" dxfId="528" priority="659">
-      <formula>$G216="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L230 N230:P230">
-    <cfRule type="expression" dxfId="527" priority="658">
-      <formula>$G230="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M230">
-    <cfRule type="expression" dxfId="526" priority="657">
-      <formula>$G230="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M205">
-    <cfRule type="expression" dxfId="525" priority="656">
-      <formula>$G205="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M206">
-    <cfRule type="expression" dxfId="524" priority="655">
-      <formula>$G206="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AK3 AN3:AS3">
-    <cfRule type="expression" dxfId="523" priority="654">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH4:AK4 AN4:AS4">
-    <cfRule type="expression" dxfId="522" priority="653">
+  <conditionalFormatting sqref="T4:T5">
+    <cfRule type="expression" dxfId="113" priority="831">
       <formula>$G4="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH27:AK27 AN27:AS27">
-    <cfRule type="expression" dxfId="521" priority="652">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH34:AK34 AN34:AS34">
-    <cfRule type="expression" dxfId="520" priority="651">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH35:AK37 AN35:AS37">
-    <cfRule type="expression" dxfId="519" priority="650">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH42:AK42 AN42:AS42">
-    <cfRule type="expression" dxfId="518" priority="649">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH44:AK44 AN44:AS44">
-    <cfRule type="expression" dxfId="517" priority="648">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH54:AK54 AN54:AS54">
-    <cfRule type="expression" dxfId="516" priority="647">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH57:AK58 AN57:AS58">
-    <cfRule type="expression" dxfId="515" priority="646">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH59:AK59 AN59:AS59">
-    <cfRule type="expression" dxfId="514" priority="645">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH154:AK154 AN154:AS154">
-    <cfRule type="expression" dxfId="513" priority="644">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH210:AK210 AN210:AS210">
-    <cfRule type="expression" dxfId="512" priority="643">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH41:AK41 AN41:AS41">
-    <cfRule type="expression" dxfId="511" priority="642">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH53">
-    <cfRule type="expression" dxfId="510" priority="641">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ53:AK53">
-    <cfRule type="expression" dxfId="509" priority="640">
-      <formula>$G53="n"</formula>
+  <conditionalFormatting sqref="AG4">
+    <cfRule type="expression" dxfId="112" priority="923">
+      <formula>$G4="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH198">
-    <cfRule type="expression" dxfId="508" priority="639">
+    <cfRule type="expression" dxfId="111" priority="639">
       <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH236">
-    <cfRule type="expression" dxfId="507" priority="638">
+    <cfRule type="expression" dxfId="110" priority="638">
       <formula>$G236="n"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AH53:AK53">
+    <cfRule type="expression" dxfId="109" priority="599">
+      <formula>$G53="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH54:AU54">
+    <cfRule type="expression" dxfId="108" priority="70">
+      <formula>$G54="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3:BW4">
+    <cfRule type="expression" dxfId="107" priority="29">
+      <formula>$G3="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH27:BW27">
+    <cfRule type="expression" dxfId="106" priority="28">
+      <formula>$G27="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH34:BW37">
+    <cfRule type="expression" dxfId="105" priority="26">
+      <formula>$G34="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH41:BW42">
+    <cfRule type="expression" dxfId="104" priority="18">
+      <formula>$G41="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH44:BW44">
+    <cfRule type="expression" dxfId="103" priority="24">
+      <formula>$G44="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH57:BW59">
+    <cfRule type="expression" dxfId="102" priority="21">
+      <formula>$G57="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH154:BW154">
+    <cfRule type="expression" dxfId="101" priority="20">
+      <formula>$G154="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH200:BW200">
+    <cfRule type="expression" dxfId="100" priority="5">
+      <formula>$G200="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH203:BW203">
+    <cfRule type="expression" dxfId="99" priority="7">
+      <formula>$G203="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH210:BW210">
+    <cfRule type="expression" dxfId="98" priority="19">
+      <formula>$G210="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI87">
+    <cfRule type="expression" dxfId="97" priority="627">
+      <formula>$G87="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI89">
+    <cfRule type="expression" dxfId="96" priority="618">
+      <formula>$G89="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI95">
+    <cfRule type="expression" dxfId="95" priority="617">
+      <formula>$G95="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI108:AI109">
+    <cfRule type="expression" dxfId="94" priority="608">
+      <formula>$G108="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ198">
+    <cfRule type="expression" dxfId="93" priority="635">
+      <formula>$G198="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AJ236">
-    <cfRule type="expression" dxfId="506" priority="637">
+    <cfRule type="expression" dxfId="92" priority="637">
       <formula>$G236="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ198">
-    <cfRule type="expression" dxfId="505" priority="635">
+  <conditionalFormatting sqref="AK38:AK40">
+    <cfRule type="expression" dxfId="91" priority="628">
+      <formula>$G38="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK87">
+    <cfRule type="expression" dxfId="90" priority="626">
+      <formula>$G87="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK89">
+    <cfRule type="expression" dxfId="89" priority="619">
+      <formula>$G89="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK95">
+    <cfRule type="expression" dxfId="88" priority="616">
+      <formula>$G95="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK108:AK109">
+    <cfRule type="expression" dxfId="87" priority="606">
+      <formula>$G108="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL198">
+    <cfRule type="expression" dxfId="86" priority="64">
       <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AM87">
+    <cfRule type="expression" dxfId="85" priority="63">
+      <formula>$G87="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM89">
+    <cfRule type="expression" dxfId="84" priority="62">
+      <formula>$G89="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM95">
+    <cfRule type="expression" dxfId="83" priority="61">
+      <formula>$G95="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM108:AM109">
+    <cfRule type="expression" dxfId="82" priority="59">
+      <formula>$G108="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AN198">
-    <cfRule type="expression" dxfId="504" priority="634">
+    <cfRule type="expression" dxfId="81" priority="634">
       <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AO87">
+    <cfRule type="expression" dxfId="80" priority="625">
+      <formula>$G87="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO89">
+    <cfRule type="expression" dxfId="79" priority="620">
+      <formula>$G89="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO95">
+    <cfRule type="expression" dxfId="78" priority="615">
+      <formula>$G95="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO108:AO109">
+    <cfRule type="expression" dxfId="77" priority="604">
+      <formula>$G108="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AP198">
-    <cfRule type="expression" dxfId="503" priority="633">
+    <cfRule type="expression" dxfId="76" priority="633">
       <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AQ87">
+    <cfRule type="expression" dxfId="75" priority="624">
+      <formula>$G87="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ89">
+    <cfRule type="expression" dxfId="74" priority="621">
+      <formula>$G89="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ95">
+    <cfRule type="expression" dxfId="73" priority="614">
+      <formula>$G95="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ108:AQ109">
+    <cfRule type="expression" dxfId="72" priority="602">
+      <formula>$G108="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AR198">
-    <cfRule type="expression" dxfId="502" priority="632">
+    <cfRule type="expression" dxfId="71" priority="632">
       <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L211:P211">
-    <cfRule type="expression" dxfId="501" priority="631">
-      <formula>$G211="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G204 I204:K204">
-    <cfRule type="expression" dxfId="500" priority="630">
-      <formula>$G204="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L204:P204">
-    <cfRule type="expression" dxfId="499" priority="629">
-      <formula>$G204="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK38:AK40">
-    <cfRule type="expression" dxfId="498" priority="628">
-      <formula>$G38="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI87">
-    <cfRule type="expression" dxfId="497" priority="627">
-      <formula>$G87="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK87">
-    <cfRule type="expression" dxfId="496" priority="626">
-      <formula>$G87="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO87">
-    <cfRule type="expression" dxfId="495" priority="625">
-      <formula>$G87="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ87">
-    <cfRule type="expression" dxfId="494" priority="624">
-      <formula>$G87="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AS87">
-    <cfRule type="expression" dxfId="493" priority="623">
+    <cfRule type="expression" dxfId="70" priority="623">
       <formula>$G87="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS89">
-    <cfRule type="expression" dxfId="492" priority="622">
+    <cfRule type="expression" dxfId="69" priority="622">
       <formula>$G89="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ89">
-    <cfRule type="expression" dxfId="491" priority="621">
-      <formula>$G89="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO89">
-    <cfRule type="expression" dxfId="490" priority="620">
-      <formula>$G89="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK89">
-    <cfRule type="expression" dxfId="489" priority="619">
-      <formula>$G89="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI89">
-    <cfRule type="expression" dxfId="488" priority="618">
-      <formula>$G89="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI95">
-    <cfRule type="expression" dxfId="487" priority="617">
+  <conditionalFormatting sqref="AS95">
+    <cfRule type="expression" dxfId="68" priority="613">
       <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK95">
-    <cfRule type="expression" dxfId="486" priority="616">
-      <formula>$G95="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO95">
-    <cfRule type="expression" dxfId="485" priority="615">
-      <formula>$G95="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ95">
-    <cfRule type="expression" dxfId="484" priority="614">
-      <formula>$G95="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS95">
-    <cfRule type="expression" dxfId="483" priority="613">
-      <formula>$G95="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I109">
-    <cfRule type="expression" dxfId="482" priority="612">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N108">
-    <cfRule type="expression" dxfId="481" priority="611">
+  <conditionalFormatting sqref="AS108:AS109">
+    <cfRule type="expression" dxfId="67" priority="600">
       <formula>$G108="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N109">
-    <cfRule type="expression" dxfId="480" priority="610">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI108">
-    <cfRule type="expression" dxfId="479" priority="609">
-      <formula>$G108="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI109">
-    <cfRule type="expression" dxfId="478" priority="608">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK108">
-    <cfRule type="expression" dxfId="477" priority="607">
-      <formula>$G108="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK109">
-    <cfRule type="expression" dxfId="476" priority="606">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO109">
-    <cfRule type="expression" dxfId="475" priority="605">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO108">
-    <cfRule type="expression" dxfId="474" priority="604">
-      <formula>$G108="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ108">
-    <cfRule type="expression" dxfId="473" priority="603">
-      <formula>$G108="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ109">
-    <cfRule type="expression" dxfId="472" priority="602">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS109">
-    <cfRule type="expression" dxfId="471" priority="601">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS108">
-    <cfRule type="expression" dxfId="470" priority="600">
-      <formula>$G108="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI53">
-    <cfRule type="expression" dxfId="469" priority="599">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G93:K93">
-    <cfRule type="expression" dxfId="468" priority="598">
-      <formula>$G93="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L93:P93">
-    <cfRule type="expression" dxfId="467" priority="597">
-      <formula>$G93="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G94:K94">
-    <cfRule type="expression" dxfId="466" priority="591">
-      <formula>$G94="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L94:P94">
-    <cfRule type="expression" dxfId="465" priority="590">
-      <formula>$G94="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT3:AU3">
-    <cfRule type="expression" dxfId="464" priority="589">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT4:AU4">
-    <cfRule type="expression" dxfId="463" priority="588">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AU27">
-    <cfRule type="expression" dxfId="462" priority="587">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT34:AU34">
-    <cfRule type="expression" dxfId="461" priority="586">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AU37">
-    <cfRule type="expression" dxfId="460" priority="585">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU42">
-    <cfRule type="expression" dxfId="459" priority="584">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT44:AU44">
-    <cfRule type="expression" dxfId="458" priority="583">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT54:AU54">
-    <cfRule type="expression" dxfId="457" priority="582">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT57:AU58">
-    <cfRule type="expression" dxfId="456" priority="581">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT59:AU59">
-    <cfRule type="expression" dxfId="455" priority="580">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT154:AU154">
-    <cfRule type="expression" dxfId="454" priority="579">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT210:AU210">
-    <cfRule type="expression" dxfId="453" priority="578">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU41">
-    <cfRule type="expression" dxfId="452" priority="577">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AT198">
-    <cfRule type="expression" dxfId="451" priority="576">
+    <cfRule type="expression" dxfId="66" priority="576">
       <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU87">
-    <cfRule type="expression" dxfId="450" priority="575">
+    <cfRule type="expression" dxfId="65" priority="575">
       <formula>$G87="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU89">
-    <cfRule type="expression" dxfId="449" priority="574">
+    <cfRule type="expression" dxfId="64" priority="574">
       <formula>$G89="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU95">
-    <cfRule type="expression" dxfId="448" priority="573">
+    <cfRule type="expression" dxfId="63" priority="573">
       <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU108">
-    <cfRule type="expression" dxfId="447" priority="572">
+  <conditionalFormatting sqref="AU108:AU109">
+    <cfRule type="expression" dxfId="62" priority="571">
       <formula>$G108="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU109">
-    <cfRule type="expression" dxfId="446" priority="571">
-      <formula>$G109="n"</formula>
+  <conditionalFormatting sqref="AV198">
+    <cfRule type="expression" dxfId="61" priority="538">
+      <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT35:AT37">
-    <cfRule type="expression" dxfId="445" priority="570">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT42">
-    <cfRule type="expression" dxfId="444" priority="569">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT41">
-    <cfRule type="expression" dxfId="443" priority="568">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F42">
-    <cfRule type="expression" dxfId="442" priority="567">
-      <formula>$G2="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F226:F229 F239 F257 F232:F233 F235:F237 F210:F211 F43:F92 F95:F196">
-    <cfRule type="expression" dxfId="441" priority="566">
-      <formula>$G43="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F208 F197:F200 F205:F206 F203">
-    <cfRule type="expression" dxfId="440" priority="565">
-      <formula>$G197="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F213:F215 F217:F225">
-    <cfRule type="expression" dxfId="439" priority="564">
-      <formula>$G213="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F238">
-    <cfRule type="expression" dxfId="438" priority="563">
-      <formula>$G238="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F240:F256">
-    <cfRule type="expression" dxfId="437" priority="562">
-      <formula>$G240="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F231">
-    <cfRule type="expression" dxfId="436" priority="561">
-      <formula>$G231="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="435" priority="560">
-      <formula>$G234="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F207">
-    <cfRule type="expression" dxfId="434" priority="559">
-      <formula>$G207="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F209">
-    <cfRule type="expression" dxfId="433" priority="558">
-      <formula>$G209="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F216">
-    <cfRule type="expression" dxfId="432" priority="557">
-      <formula>$G216="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F230">
-    <cfRule type="expression" dxfId="431" priority="556">
-      <formula>$G230="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F204">
-    <cfRule type="expression" dxfId="430" priority="555">
-      <formula>$G204="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93">
-    <cfRule type="expression" dxfId="429" priority="554">
-      <formula>$G93="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
-    <cfRule type="expression" dxfId="428" priority="553">
-      <formula>$G94="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV3:AW3">
-    <cfRule type="expression" dxfId="427" priority="552">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV4:AW4">
-    <cfRule type="expression" dxfId="426" priority="551">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV27:AW27">
-    <cfRule type="expression" dxfId="425" priority="550">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV34:AW34">
-    <cfRule type="expression" dxfId="424" priority="549">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV35:AW37">
-    <cfRule type="expression" dxfId="423" priority="548">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV42:AW42">
-    <cfRule type="expression" dxfId="422" priority="547">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV44:AW44">
-    <cfRule type="expression" dxfId="421" priority="546">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV54">
-    <cfRule type="expression" dxfId="420" priority="545">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV58:AW58">
-    <cfRule type="expression" dxfId="419" priority="544">
-      <formula>$G58="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV154:AW154">
-    <cfRule type="expression" dxfId="418" priority="542">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV210:AW210">
-    <cfRule type="expression" dxfId="417" priority="541">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV41">
-    <cfRule type="expression" dxfId="416" priority="540">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV53">
-    <cfRule type="expression" dxfId="415" priority="539">
+  <conditionalFormatting sqref="AV53:AY54">
+    <cfRule type="expression" dxfId="60" priority="507">
       <formula>$G53="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV198">
-    <cfRule type="expression" dxfId="414" priority="538">
-      <formula>$G198="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AW95">
-    <cfRule type="expression" dxfId="413" priority="534">
+    <cfRule type="expression" dxfId="59" priority="534">
       <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW41">
-    <cfRule type="expression" dxfId="412" priority="530">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW54">
-    <cfRule type="expression" dxfId="411" priority="529">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW53">
-    <cfRule type="expression" dxfId="410" priority="528">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX3:AY3">
-    <cfRule type="expression" dxfId="409" priority="526">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX4:AY4">
-    <cfRule type="expression" dxfId="408" priority="525">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX27:AY27">
-    <cfRule type="expression" dxfId="407" priority="524">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX34:AY34">
-    <cfRule type="expression" dxfId="406" priority="523">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX35:AY37">
-    <cfRule type="expression" dxfId="405" priority="522">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX42:AY42">
-    <cfRule type="expression" dxfId="404" priority="521">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX44:AY44">
-    <cfRule type="expression" dxfId="403" priority="520">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX54">
-    <cfRule type="expression" dxfId="402" priority="519">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX58:AY58">
-    <cfRule type="expression" dxfId="401" priority="518">
-      <formula>$G58="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY59">
-    <cfRule type="expression" dxfId="400" priority="517">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX154:AY154">
-    <cfRule type="expression" dxfId="399" priority="516">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX210:AY210">
-    <cfRule type="expression" dxfId="398" priority="515">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX41">
-    <cfRule type="expression" dxfId="397" priority="514">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX53">
-    <cfRule type="expression" dxfId="396" priority="513">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AX198">
-    <cfRule type="expression" dxfId="395" priority="512">
+    <cfRule type="expression" dxfId="58" priority="512">
       <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY95">
-    <cfRule type="expression" dxfId="394" priority="510">
+    <cfRule type="expression" dxfId="57" priority="510">
       <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY41">
-    <cfRule type="expression" dxfId="393" priority="509">
-      <formula>$G41="n"</formula>
+  <conditionalFormatting sqref="AY236">
+    <cfRule type="expression" dxfId="56" priority="506">
+      <formula>$G236="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY54">
-    <cfRule type="expression" dxfId="392" priority="508">
+  <conditionalFormatting sqref="AZ198">
+    <cfRule type="expression" dxfId="55" priority="414">
+      <formula>$G198="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ54:BI54">
+    <cfRule type="expression" dxfId="54" priority="334">
       <formula>$G54="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY53">
-    <cfRule type="expression" dxfId="391" priority="507">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY236">
-    <cfRule type="expression" dxfId="390" priority="506">
-      <formula>$G236="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV57:AW57">
-    <cfRule type="expression" dxfId="389" priority="505">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX57:AY57">
-    <cfRule type="expression" dxfId="388" priority="504">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O199:P199">
-    <cfRule type="expression" dxfId="387" priority="502">
-      <formula>$G199="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O203:P203">
-    <cfRule type="expression" dxfId="386" priority="501">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH203">
-    <cfRule type="expression" dxfId="385" priority="499">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G202:H202 J202:K202">
-    <cfRule type="expression" dxfId="384" priority="483">
-      <formula>$G202="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L202:M202">
-    <cfRule type="expression" dxfId="383" priority="482">
-      <formula>$G202="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F202">
-    <cfRule type="expression" dxfId="382" priority="481">
-      <formula>$G202="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI203">
-    <cfRule type="expression" dxfId="381" priority="465">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ203">
-    <cfRule type="expression" dxfId="380" priority="464">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK203">
-    <cfRule type="expression" dxfId="379" priority="463">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN203">
-    <cfRule type="expression" dxfId="378" priority="462">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO203">
-    <cfRule type="expression" dxfId="377" priority="461">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP203">
-    <cfRule type="expression" dxfId="376" priority="460">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ203">
-    <cfRule type="expression" dxfId="375" priority="459">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR203">
-    <cfRule type="expression" dxfId="374" priority="458">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS203">
-    <cfRule type="expression" dxfId="373" priority="457">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT203">
-    <cfRule type="expression" dxfId="372" priority="456">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU203">
-    <cfRule type="expression" dxfId="371" priority="454">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV203">
-    <cfRule type="expression" dxfId="370" priority="453">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW203">
-    <cfRule type="expression" dxfId="369" priority="452">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX203">
-    <cfRule type="expression" dxfId="368" priority="451">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY203">
-    <cfRule type="expression" dxfId="367" priority="450">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O202:P202">
-    <cfRule type="expression" dxfId="366" priority="447">
-      <formula>$G202="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P200">
-    <cfRule type="expression" dxfId="365" priority="445">
-      <formula>$G200="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M143:M145">
-    <cfRule type="expression" dxfId="364" priority="444">
-      <formula>$G143="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M99:M100">
-    <cfRule type="expression" dxfId="363" priority="443">
-      <formula>$G99="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M103:M104">
-    <cfRule type="expression" dxfId="362" priority="442">
-      <formula>$G103="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M42">
-    <cfRule type="expression" dxfId="361" priority="440">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O246:P247">
-    <cfRule type="expression" dxfId="360" priority="439">
-      <formula>$G246="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G201:K201">
-    <cfRule type="expression" dxfId="359" priority="438">
-      <formula>$G201="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L201:P201">
-    <cfRule type="expression" dxfId="358" priority="437">
-      <formula>$G201="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F201">
-    <cfRule type="expression" dxfId="357" priority="436">
-      <formula>$G201="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O220:P220">
-    <cfRule type="expression" dxfId="356" priority="435">
-      <formula>$G220="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O243:P244">
-    <cfRule type="expression" dxfId="355" priority="434">
-      <formula>$G243="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV59">
-    <cfRule type="expression" dxfId="354" priority="430">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW59">
-    <cfRule type="expression" dxfId="353" priority="429">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX59">
-    <cfRule type="expression" dxfId="352" priority="428">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ3:BA3">
-    <cfRule type="expression" dxfId="351" priority="427">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ4:BA4">
-    <cfRule type="expression" dxfId="350" priority="426">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ27:BA27">
-    <cfRule type="expression" dxfId="349" priority="425">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ34:BA34">
-    <cfRule type="expression" dxfId="348" priority="424">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ35:BA37">
-    <cfRule type="expression" dxfId="347" priority="423">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ42">
-    <cfRule type="expression" dxfId="346" priority="422">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ44:BA44">
-    <cfRule type="expression" dxfId="345" priority="421">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ54">
-    <cfRule type="expression" dxfId="344" priority="420">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ57:BA58">
-    <cfRule type="expression" dxfId="343" priority="419">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ59:BA59">
-    <cfRule type="expression" dxfId="342" priority="418">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ154:BA154">
-    <cfRule type="expression" dxfId="341" priority="417">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ210:BA210">
-    <cfRule type="expression" dxfId="340" priority="416">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ41">
-    <cfRule type="expression" dxfId="339" priority="415">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ198">
-    <cfRule type="expression" dxfId="338" priority="414">
-      <formula>$G198="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BA95">
-    <cfRule type="expression" dxfId="337" priority="411">
+    <cfRule type="expression" dxfId="53" priority="411">
       <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ203">
-    <cfRule type="expression" dxfId="336" priority="408">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA203">
-    <cfRule type="expression" dxfId="335" priority="407">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA42">
-    <cfRule type="expression" dxfId="334" priority="406">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA41">
-    <cfRule type="expression" dxfId="333" priority="405">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA54">
-    <cfRule type="expression" dxfId="332" priority="404">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB3:BC3">
-    <cfRule type="expression" dxfId="331" priority="403">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB4:BC4">
-    <cfRule type="expression" dxfId="330" priority="402">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB27:BC27">
-    <cfRule type="expression" dxfId="329" priority="401">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB34:BC34">
-    <cfRule type="expression" dxfId="328" priority="400">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB35:BC37">
-    <cfRule type="expression" dxfId="327" priority="399">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB42">
-    <cfRule type="expression" dxfId="326" priority="398">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB44:BC44">
-    <cfRule type="expression" dxfId="325" priority="397">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB54">
-    <cfRule type="expression" dxfId="324" priority="396">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB57:BC58">
-    <cfRule type="expression" dxfId="323" priority="395">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB59:BC59">
-    <cfRule type="expression" dxfId="322" priority="394">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB154:BC154">
-    <cfRule type="expression" dxfId="321" priority="393">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB210:BC210">
-    <cfRule type="expression" dxfId="320" priority="392">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB41">
-    <cfRule type="expression" dxfId="319" priority="391">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BB198">
-    <cfRule type="expression" dxfId="318" priority="390">
+    <cfRule type="expression" dxfId="52" priority="390">
       <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC95">
-    <cfRule type="expression" dxfId="317" priority="389">
+    <cfRule type="expression" dxfId="51" priority="389">
       <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB203">
-    <cfRule type="expression" dxfId="316" priority="388">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC203">
-    <cfRule type="expression" dxfId="315" priority="387">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC42">
-    <cfRule type="expression" dxfId="314" priority="386">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC41">
-    <cfRule type="expression" dxfId="313" priority="385">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC54">
-    <cfRule type="expression" dxfId="312" priority="384">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD3:BE3">
-    <cfRule type="expression" dxfId="311" priority="383">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD4:BE4">
-    <cfRule type="expression" dxfId="310" priority="382">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD27:BE27">
-    <cfRule type="expression" dxfId="309" priority="381">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD34:BE34">
-    <cfRule type="expression" dxfId="308" priority="380">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD35:BE37">
-    <cfRule type="expression" dxfId="307" priority="379">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD42:BE42">
-    <cfRule type="expression" dxfId="306" priority="378">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD44:BE44">
-    <cfRule type="expression" dxfId="305" priority="377">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD54:BE54">
-    <cfRule type="expression" dxfId="304" priority="376">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD57:BE58">
-    <cfRule type="expression" dxfId="303" priority="375">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD59:BE59">
-    <cfRule type="expression" dxfId="302" priority="374">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD154:BE154">
-    <cfRule type="expression" dxfId="301" priority="373">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD210:BE210">
-    <cfRule type="expression" dxfId="300" priority="372">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD41:BE41">
-    <cfRule type="expression" dxfId="299" priority="371">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BD198">
-    <cfRule type="expression" dxfId="298" priority="370">
+    <cfRule type="expression" dxfId="50" priority="370">
       <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE87">
-    <cfRule type="expression" dxfId="297" priority="369">
+    <cfRule type="expression" dxfId="49" priority="369">
       <formula>$G87="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE89">
-    <cfRule type="expression" dxfId="296" priority="368">
+    <cfRule type="expression" dxfId="48" priority="368">
       <formula>$G89="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE95">
-    <cfRule type="expression" dxfId="295" priority="367">
+    <cfRule type="expression" dxfId="47" priority="367">
       <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE109">
-    <cfRule type="expression" dxfId="294" priority="366">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE108">
-    <cfRule type="expression" dxfId="293" priority="365">
+  <conditionalFormatting sqref="BE108:BE109">
+    <cfRule type="expression" dxfId="46" priority="365">
       <formula>$G108="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD203">
-    <cfRule type="expression" dxfId="292" priority="364">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE203">
-    <cfRule type="expression" dxfId="291" priority="363">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF3:BG3">
-    <cfRule type="expression" dxfId="290" priority="362">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF4:BG4">
-    <cfRule type="expression" dxfId="289" priority="361">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF27:BG27">
-    <cfRule type="expression" dxfId="288" priority="360">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF34:BG34">
-    <cfRule type="expression" dxfId="287" priority="359">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF35:BG37">
-    <cfRule type="expression" dxfId="286" priority="358">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF42:BG42">
-    <cfRule type="expression" dxfId="285" priority="357">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF44:BG44">
-    <cfRule type="expression" dxfId="284" priority="356">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF54:BG54">
-    <cfRule type="expression" dxfId="283" priority="355">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF57:BG58">
-    <cfRule type="expression" dxfId="282" priority="354">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF59:BG59">
-    <cfRule type="expression" dxfId="281" priority="353">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF154:BG154">
-    <cfRule type="expression" dxfId="280" priority="352">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF210:BG210">
-    <cfRule type="expression" dxfId="279" priority="351">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF41:BG41">
-    <cfRule type="expression" dxfId="278" priority="350">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BF198">
-    <cfRule type="expression" dxfId="277" priority="349">
+    <cfRule type="expression" dxfId="45" priority="349">
       <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG87">
-    <cfRule type="expression" dxfId="276" priority="348">
+    <cfRule type="expression" dxfId="44" priority="348">
       <formula>$G87="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG89">
-    <cfRule type="expression" dxfId="275" priority="347">
+    <cfRule type="expression" dxfId="43" priority="347">
       <formula>$G89="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG95">
-    <cfRule type="expression" dxfId="274" priority="346">
+    <cfRule type="expression" dxfId="42" priority="346">
       <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG109">
-    <cfRule type="expression" dxfId="273" priority="345">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG108">
-    <cfRule type="expression" dxfId="272" priority="344">
+  <conditionalFormatting sqref="BG108:BG109">
+    <cfRule type="expression" dxfId="41" priority="344">
       <formula>$G108="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF203">
-    <cfRule type="expression" dxfId="271" priority="343">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG203">
-    <cfRule type="expression" dxfId="270" priority="342">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH3:BI3">
-    <cfRule type="expression" dxfId="269" priority="341">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BI4">
-    <cfRule type="expression" dxfId="268" priority="340">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH27:BI27">
-    <cfRule type="expression" dxfId="267" priority="339">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH34:BI34">
-    <cfRule type="expression" dxfId="266" priority="338">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI35:BI37">
-    <cfRule type="expression" dxfId="265" priority="337">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI42">
-    <cfRule type="expression" dxfId="264" priority="336">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH44:BI44">
-    <cfRule type="expression" dxfId="263" priority="335">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH54:BI54">
-    <cfRule type="expression" dxfId="262" priority="334">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH57:BI58">
-    <cfRule type="expression" dxfId="261" priority="333">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH59:BI59">
-    <cfRule type="expression" dxfId="260" priority="332">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH154:BI154">
-    <cfRule type="expression" dxfId="259" priority="331">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH210:BI210">
-    <cfRule type="expression" dxfId="258" priority="330">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI41">
-    <cfRule type="expression" dxfId="257" priority="329">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BH198">
-    <cfRule type="expression" dxfId="256" priority="328">
+    <cfRule type="expression" dxfId="40" priority="328">
       <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI87">
-    <cfRule type="expression" dxfId="255" priority="327">
+    <cfRule type="expression" dxfId="39" priority="327">
       <formula>$G87="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI89">
-    <cfRule type="expression" dxfId="254" priority="326">
+    <cfRule type="expression" dxfId="38" priority="326">
       <formula>$G89="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI95">
-    <cfRule type="expression" dxfId="253" priority="325">
+    <cfRule type="expression" dxfId="37" priority="325">
       <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI108">
-    <cfRule type="expression" dxfId="252" priority="324">
+  <conditionalFormatting sqref="BI108:BI109">
+    <cfRule type="expression" dxfId="36" priority="323">
       <formula>$G108="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI109">
-    <cfRule type="expression" dxfId="251" priority="323">
-      <formula>$G109="n"</formula>
+  <conditionalFormatting sqref="BJ198">
+    <cfRule type="expression" dxfId="35" priority="303">
+      <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH35:BH37">
-    <cfRule type="expression" dxfId="250" priority="322">
-      <formula>$G35="n"</formula>
+  <conditionalFormatting sqref="BJ53:BL54">
+    <cfRule type="expression" dxfId="34" priority="280">
+      <formula>$G53="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH42">
-    <cfRule type="expression" dxfId="249" priority="321">
-      <formula>$G42="n"</formula>
+  <conditionalFormatting sqref="BK95">
+    <cfRule type="expression" dxfId="33" priority="302">
+      <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH41">
-    <cfRule type="expression" dxfId="248" priority="320">
-      <formula>$G41="n"</formula>
+  <conditionalFormatting sqref="BK236">
+    <cfRule type="expression" dxfId="32" priority="298">
+      <formula>$G236="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH203">
-    <cfRule type="expression" dxfId="247" priority="319">
-      <formula>$G203="n"</formula>
+  <conditionalFormatting sqref="BL198">
+    <cfRule type="expression" dxfId="31" priority="279">
+      <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI203">
-    <cfRule type="expression" dxfId="246" priority="318">
-      <formula>$G203="n"</formula>
+  <conditionalFormatting sqref="BM53:BM56">
+    <cfRule type="expression" dxfId="30" priority="268">
+      <formula>$G53="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ3:BK3">
-    <cfRule type="expression" dxfId="245" priority="317">
-      <formula>$G3="n"</formula>
+  <conditionalFormatting sqref="BM95">
+    <cfRule type="expression" dxfId="29" priority="278">
+      <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ4:BK4">
-    <cfRule type="expression" dxfId="244" priority="316">
-      <formula>$G4="n"</formula>
+  <conditionalFormatting sqref="BM236:BO236">
+    <cfRule type="expression" dxfId="28" priority="243">
+      <formula>$G236="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ27:BK27">
-    <cfRule type="expression" dxfId="243" priority="315">
-      <formula>$G27="n"</formula>
+  <conditionalFormatting sqref="BN198">
+    <cfRule type="expression" dxfId="27" priority="253">
+      <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ34:BK34">
-    <cfRule type="expression" dxfId="242" priority="314">
-      <formula>$G34="n"</formula>
+  <conditionalFormatting sqref="BN53:BO54">
+    <cfRule type="expression" dxfId="26" priority="249">
+      <formula>$G53="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ35:BK37">
-    <cfRule type="expression" dxfId="241" priority="313">
-      <formula>$G35="n"</formula>
+  <conditionalFormatting sqref="BO95">
+    <cfRule type="expression" dxfId="25" priority="252">
+      <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ42:BK42">
-    <cfRule type="expression" dxfId="240" priority="312">
-      <formula>$G42="n"</formula>
+  <conditionalFormatting sqref="BP198">
+    <cfRule type="expression" dxfId="24" priority="160">
+      <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ44:BK44">
-    <cfRule type="expression" dxfId="239" priority="311">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ54">
-    <cfRule type="expression" dxfId="238" priority="310">
+  <conditionalFormatting sqref="BP54:BS54">
+    <cfRule type="expression" dxfId="23" priority="127">
       <formula>$G54="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ58:BK58">
-    <cfRule type="expression" dxfId="237" priority="309">
-      <formula>$G58="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK59">
-    <cfRule type="expression" dxfId="236" priority="308">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ154:BK154">
-    <cfRule type="expression" dxfId="235" priority="307">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ210:BK210">
-    <cfRule type="expression" dxfId="234" priority="306">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ41">
-    <cfRule type="expression" dxfId="233" priority="305">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ53">
-    <cfRule type="expression" dxfId="232" priority="304">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ198">
-    <cfRule type="expression" dxfId="231" priority="303">
-      <formula>$G198="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK95">
-    <cfRule type="expression" dxfId="230" priority="302">
-      <formula>$G95="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK41">
-    <cfRule type="expression" dxfId="229" priority="301">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK54">
-    <cfRule type="expression" dxfId="228" priority="300">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK53">
-    <cfRule type="expression" dxfId="227" priority="299">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK236">
-    <cfRule type="expression" dxfId="226" priority="298">
-      <formula>$G236="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ57:BK57">
-    <cfRule type="expression" dxfId="225" priority="297">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ203">
-    <cfRule type="expression" dxfId="224" priority="296">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK203">
-    <cfRule type="expression" dxfId="223" priority="295">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ59">
-    <cfRule type="expression" dxfId="222" priority="294">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL3:BM3">
-    <cfRule type="expression" dxfId="221" priority="293">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL4:BM4">
-    <cfRule type="expression" dxfId="220" priority="292">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL27:BM27">
-    <cfRule type="expression" dxfId="219" priority="291">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL34:BM34">
-    <cfRule type="expression" dxfId="218" priority="290">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL35:BM37">
-    <cfRule type="expression" dxfId="217" priority="289">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL42:BM42">
-    <cfRule type="expression" dxfId="216" priority="288">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL44:BM44">
-    <cfRule type="expression" dxfId="215" priority="287">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL54">
-    <cfRule type="expression" dxfId="214" priority="286">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL58:BM58">
-    <cfRule type="expression" dxfId="213" priority="285">
-      <formula>$G58="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM59">
-    <cfRule type="expression" dxfId="212" priority="284">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL154:BM154">
-    <cfRule type="expression" dxfId="211" priority="283">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL210:BM210">
-    <cfRule type="expression" dxfId="210" priority="282">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL41">
-    <cfRule type="expression" dxfId="209" priority="281">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL53">
-    <cfRule type="expression" dxfId="208" priority="280">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL198">
-    <cfRule type="expression" dxfId="207" priority="279">
-      <formula>$G198="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM95">
-    <cfRule type="expression" dxfId="206" priority="278">
-      <formula>$G95="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM41">
-    <cfRule type="expression" dxfId="205" priority="277">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM54">
-    <cfRule type="expression" dxfId="204" priority="276">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM53">
-    <cfRule type="expression" dxfId="203" priority="275">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM236">
-    <cfRule type="expression" dxfId="202" priority="274">
-      <formula>$G236="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL203">
-    <cfRule type="expression" dxfId="201" priority="272">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM203">
-    <cfRule type="expression" dxfId="200" priority="271">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL59">
-    <cfRule type="expression" dxfId="199" priority="270">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL57:BM57">
-    <cfRule type="expression" dxfId="198" priority="269">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM55:BM56">
-    <cfRule type="expression" dxfId="197" priority="268">
-      <formula>$G55="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN3:BO3">
-    <cfRule type="expression" dxfId="196" priority="267">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN4:BO4">
-    <cfRule type="expression" dxfId="195" priority="266">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN27:BO27">
-    <cfRule type="expression" dxfId="194" priority="265">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN34:BO34">
-    <cfRule type="expression" dxfId="193" priority="264">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN35:BO37">
-    <cfRule type="expression" dxfId="192" priority="263">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN42:BO42">
-    <cfRule type="expression" dxfId="191" priority="262">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN44:BO44">
-    <cfRule type="expression" dxfId="190" priority="261">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN54">
-    <cfRule type="expression" dxfId="189" priority="260">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN58:BO58">
-    <cfRule type="expression" dxfId="188" priority="259">
-      <formula>$G58="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO59">
-    <cfRule type="expression" dxfId="187" priority="258">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN154:BO154">
-    <cfRule type="expression" dxfId="186" priority="257">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN210:BO210">
-    <cfRule type="expression" dxfId="185" priority="256">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN41">
-    <cfRule type="expression" dxfId="184" priority="255">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN53">
-    <cfRule type="expression" dxfId="183" priority="254">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN198">
-    <cfRule type="expression" dxfId="182" priority="253">
-      <formula>$G198="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO95">
-    <cfRule type="expression" dxfId="181" priority="252">
-      <formula>$G95="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO41">
-    <cfRule type="expression" dxfId="180" priority="251">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO54">
-    <cfRule type="expression" dxfId="179" priority="250">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO53">
-    <cfRule type="expression" dxfId="178" priority="249">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO236">
-    <cfRule type="expression" dxfId="177" priority="248">
-      <formula>$G236="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN57:BO57">
-    <cfRule type="expression" dxfId="176" priority="247">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN203">
-    <cfRule type="expression" dxfId="175" priority="246">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO203">
-    <cfRule type="expression" dxfId="174" priority="245">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN236">
-    <cfRule type="expression" dxfId="173" priority="243">
-      <formula>$G236="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN59">
-    <cfRule type="expression" dxfId="172" priority="242">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH200">
-    <cfRule type="expression" dxfId="171" priority="206">
-      <formula>$G200="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O200">
-    <cfRule type="expression" dxfId="170" priority="174">
-      <formula>$G200="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP3:BQ3">
-    <cfRule type="expression" dxfId="169" priority="173">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP4:BQ4">
-    <cfRule type="expression" dxfId="168" priority="172">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP27:BQ27">
-    <cfRule type="expression" dxfId="167" priority="171">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP34:BQ34">
-    <cfRule type="expression" dxfId="166" priority="170">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP35:BQ37">
-    <cfRule type="expression" dxfId="165" priority="169">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP42:BQ42">
-    <cfRule type="expression" dxfId="164" priority="168">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP44:BQ44">
-    <cfRule type="expression" dxfId="163" priority="167">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP54:BQ54">
-    <cfRule type="expression" dxfId="162" priority="166">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP57:BQ58">
-    <cfRule type="expression" dxfId="161" priority="165">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP59:BQ59">
-    <cfRule type="expression" dxfId="160" priority="164">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP154:BQ154">
-    <cfRule type="expression" dxfId="159" priority="163">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP210:BQ210">
-    <cfRule type="expression" dxfId="158" priority="162">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP41:BQ41">
-    <cfRule type="expression" dxfId="157" priority="161">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP198">
-    <cfRule type="expression" dxfId="156" priority="160">
-      <formula>$G198="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BQ87">
-    <cfRule type="expression" dxfId="155" priority="159">
+    <cfRule type="expression" dxfId="22" priority="159">
       <formula>$G87="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ89">
-    <cfRule type="expression" dxfId="154" priority="158">
+    <cfRule type="expression" dxfId="21" priority="158">
       <formula>$G89="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ95">
-    <cfRule type="expression" dxfId="153" priority="157">
+    <cfRule type="expression" dxfId="20" priority="157">
       <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ109">
-    <cfRule type="expression" dxfId="152" priority="156">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ108">
-    <cfRule type="expression" dxfId="151" priority="155">
+  <conditionalFormatting sqref="BQ108:BQ109">
+    <cfRule type="expression" dxfId="19" priority="155">
       <formula>$G108="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP203">
-    <cfRule type="expression" dxfId="150" priority="154">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ203">
-    <cfRule type="expression" dxfId="149" priority="153">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M57">
-    <cfRule type="expression" dxfId="148" priority="150">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="147" priority="149">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H204">
-    <cfRule type="expression" dxfId="146" priority="148">
-      <formula>$G204="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI200:AK200 AN200:BQ200">
-    <cfRule type="expression" dxfId="145" priority="147">
-      <formula>$G200="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G254">
-    <cfRule type="expression" dxfId="144" priority="146">
-      <formula>$G254="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H254:I254">
-    <cfRule type="expression" dxfId="143" priority="145">
-      <formula>$G254="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J254:K254">
-    <cfRule type="expression" dxfId="142" priority="144">
-      <formula>$G254="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L254">
-    <cfRule type="expression" dxfId="141" priority="143">
-      <formula>$G254="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N254">
-    <cfRule type="expression" dxfId="140" priority="142">
-      <formula>$G254="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O254:P254">
-    <cfRule type="expression" dxfId="139" priority="141">
-      <formula>$G254="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M254">
-    <cfRule type="expression" dxfId="138" priority="140">
-      <formula>$G254="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G212:J212">
-    <cfRule type="expression" dxfId="137" priority="139">
-      <formula>$G212="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L212:O212">
-    <cfRule type="expression" dxfId="136" priority="138">
-      <formula>$G212="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F212">
-    <cfRule type="expression" dxfId="135" priority="137">
-      <formula>$G212="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M36:M37">
-    <cfRule type="expression" dxfId="134" priority="135">
-      <formula>$G36="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR3:BS3">
-    <cfRule type="expression" dxfId="133" priority="134">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR4:BS4">
-    <cfRule type="expression" dxfId="132" priority="133">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR27:BS27">
-    <cfRule type="expression" dxfId="131" priority="132">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR34:BS34">
-    <cfRule type="expression" dxfId="130" priority="131">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS35:BS37">
-    <cfRule type="expression" dxfId="129" priority="130">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS42">
-    <cfRule type="expression" dxfId="128" priority="129">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR44:BS44">
-    <cfRule type="expression" dxfId="127" priority="128">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR54:BS54">
-    <cfRule type="expression" dxfId="126" priority="127">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR57:BS58">
-    <cfRule type="expression" dxfId="125" priority="126">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR59:BS59">
-    <cfRule type="expression" dxfId="124" priority="125">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR154:BS154">
-    <cfRule type="expression" dxfId="123" priority="124">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR210:BS210">
-    <cfRule type="expression" dxfId="122" priority="123">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS41">
-    <cfRule type="expression" dxfId="121" priority="122">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BR198">
-    <cfRule type="expression" dxfId="120" priority="121">
+    <cfRule type="expression" dxfId="18" priority="121">
       <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS87">
-    <cfRule type="expression" dxfId="119" priority="120">
+    <cfRule type="expression" dxfId="17" priority="120">
       <formula>$G87="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS89">
-    <cfRule type="expression" dxfId="118" priority="119">
+    <cfRule type="expression" dxfId="16" priority="119">
       <formula>$G89="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS95">
-    <cfRule type="expression" dxfId="117" priority="118">
+    <cfRule type="expression" dxfId="15" priority="118">
       <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS108">
-    <cfRule type="expression" dxfId="116" priority="117">
+  <conditionalFormatting sqref="BS108:BS109">
+    <cfRule type="expression" dxfId="14" priority="116">
       <formula>$G108="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS109">
-    <cfRule type="expression" dxfId="115" priority="116">
-      <formula>$G109="n"</formula>
+  <conditionalFormatting sqref="BT198">
+    <cfRule type="expression" dxfId="13" priority="40">
+      <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR35:BR37">
-    <cfRule type="expression" dxfId="114" priority="115">
-      <formula>$G35="n"</formula>
+  <conditionalFormatting sqref="BT236">
+    <cfRule type="expression" dxfId="12" priority="41">
+      <formula>$G236="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR42">
-    <cfRule type="expression" dxfId="113" priority="114">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR41">
-    <cfRule type="expression" dxfId="112" priority="113">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR203">
-    <cfRule type="expression" dxfId="111" priority="112">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS203">
-    <cfRule type="expression" dxfId="110" priority="111">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR200:BS200">
-    <cfRule type="expression" dxfId="109" priority="110">
-      <formula>$G200="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N214">
-    <cfRule type="expression" dxfId="108" priority="109">
-      <formula>$G214="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K212">
-    <cfRule type="expression" dxfId="107" priority="108">
-      <formula>$G212="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K213">
-    <cfRule type="expression" dxfId="106" priority="107">
-      <formula>$G213="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P212">
-    <cfRule type="expression" dxfId="105" priority="106">
-      <formula>$G212="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P213">
-    <cfRule type="expression" dxfId="104" priority="105">
-      <formula>$G213="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K214">
-    <cfRule type="expression" dxfId="103" priority="104">
-      <formula>$G214="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P214">
-    <cfRule type="expression" dxfId="102" priority="103">
-      <formula>$G214="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25">
-    <cfRule type="expression" dxfId="101" priority="102">
-      <formula>$G25="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
-    <cfRule type="expression" dxfId="100" priority="101">
-      <formula>$G26="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N29">
-    <cfRule type="expression" dxfId="99" priority="100">
-      <formula>$G29="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N38">
-    <cfRule type="expression" dxfId="98" priority="99">
-      <formula>$G38="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N52">
-    <cfRule type="expression" dxfId="97" priority="98">
-      <formula>$G52="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N53">
-    <cfRule type="expression" dxfId="96" priority="97">
+  <conditionalFormatting sqref="BT53:BW54">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$G53="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N55">
-    <cfRule type="expression" dxfId="95" priority="96">
-      <formula>$G55="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N89">
-    <cfRule type="expression" dxfId="94" priority="95">
-      <formula>$G89="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N155">
-    <cfRule type="expression" dxfId="93" priority="94">
-      <formula>$G155="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N156">
-    <cfRule type="expression" dxfId="92" priority="93">
-      <formula>$G156="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N157">
-    <cfRule type="expression" dxfId="91" priority="92">
-      <formula>$G157="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N158">
-    <cfRule type="expression" dxfId="90" priority="91">
-      <formula>$G158="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N159">
-    <cfRule type="expression" dxfId="89" priority="90">
-      <formula>$G159="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N160">
-    <cfRule type="expression" dxfId="88" priority="89">
-      <formula>$G160="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N178">
-    <cfRule type="expression" dxfId="87" priority="88">
-      <formula>$G178="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N200">
-    <cfRule type="expression" dxfId="86" priority="87">
-      <formula>$G200="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I203">
-    <cfRule type="expression" dxfId="85" priority="86">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N203">
-    <cfRule type="expression" dxfId="84" priority="85">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N222">
-    <cfRule type="expression" dxfId="83" priority="84">
-      <formula>$G222="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N220">
-    <cfRule type="expression" dxfId="82" priority="83">
-      <formula>$G220="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N242">
-    <cfRule type="expression" dxfId="81" priority="82">
-      <formula>$G242="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N243">
-    <cfRule type="expression" dxfId="80" priority="81">
-      <formula>$G243="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N244">
-    <cfRule type="expression" dxfId="79" priority="80">
-      <formula>$G244="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N246:N247">
-    <cfRule type="expression" dxfId="78" priority="79">
-      <formula>$G246="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N255">
-    <cfRule type="expression" dxfId="77" priority="78">
-      <formula>$G255="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL3:AM3">
-    <cfRule type="expression" dxfId="76" priority="77">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL4:AM4">
-    <cfRule type="expression" dxfId="75" priority="76">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL27:AM27">
-    <cfRule type="expression" dxfId="74" priority="75">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL34:AM34">
-    <cfRule type="expression" dxfId="73" priority="74">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL35:AM37">
-    <cfRule type="expression" dxfId="72" priority="73">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL42:AM42">
-    <cfRule type="expression" dxfId="71" priority="72">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL44:AM44">
-    <cfRule type="expression" dxfId="70" priority="71">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL54:AM54">
-    <cfRule type="expression" dxfId="69" priority="70">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL57:AM58">
-    <cfRule type="expression" dxfId="68" priority="69">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL59:AM59">
-    <cfRule type="expression" dxfId="67" priority="68">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL154:AM154">
-    <cfRule type="expression" dxfId="66" priority="67">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL210:AM210">
-    <cfRule type="expression" dxfId="65" priority="66">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL41:AM41">
-    <cfRule type="expression" dxfId="64" priority="65">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL198">
-    <cfRule type="expression" dxfId="63" priority="64">
-      <formula>$G198="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM87">
-    <cfRule type="expression" dxfId="62" priority="63">
-      <formula>$G87="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM89">
-    <cfRule type="expression" dxfId="61" priority="62">
-      <formula>$G89="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM95">
-    <cfRule type="expression" dxfId="60" priority="61">
-      <formula>$G95="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM109">
-    <cfRule type="expression" dxfId="59" priority="60">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM108">
-    <cfRule type="expression" dxfId="58" priority="59">
-      <formula>$G108="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL203">
-    <cfRule type="expression" dxfId="57" priority="58">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM203">
-    <cfRule type="expression" dxfId="56" priority="57">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL200:AM200">
-    <cfRule type="expression" dxfId="55" priority="56">
-      <formula>$G200="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT3:BU3">
-    <cfRule type="expression" dxfId="54" priority="55">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT4:BU4">
-    <cfRule type="expression" dxfId="53" priority="54">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT27:BU27">
-    <cfRule type="expression" dxfId="52" priority="53">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT34:BU34">
-    <cfRule type="expression" dxfId="51" priority="52">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT35:BU37">
-    <cfRule type="expression" dxfId="50" priority="51">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT42:BU42">
-    <cfRule type="expression" dxfId="49" priority="50">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT44:BU44">
-    <cfRule type="expression" dxfId="48" priority="49">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT54:BU54">
-    <cfRule type="expression" dxfId="47" priority="48">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT57:BU58">
-    <cfRule type="expression" dxfId="46" priority="47">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT59:BU59">
-    <cfRule type="expression" dxfId="45" priority="46">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT154:BU154">
-    <cfRule type="expression" dxfId="44" priority="45">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT210:BU210">
-    <cfRule type="expression" dxfId="43" priority="44">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT41:BU41">
-    <cfRule type="expression" dxfId="42" priority="43">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT53:BU53">
-    <cfRule type="expression" dxfId="41" priority="42">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT236">
-    <cfRule type="expression" dxfId="40" priority="41">
-      <formula>$G236="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT198">
-    <cfRule type="expression" dxfId="39" priority="40">
-      <formula>$G198="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BU38:BU40">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="10" priority="39">
       <formula>$G38="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU87">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="9" priority="38">
       <formula>$G87="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU89">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="8" priority="37">
       <formula>$G89="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU95">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="7" priority="36">
       <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU108">
-    <cfRule type="expression" dxfId="34" priority="35">
+  <conditionalFormatting sqref="BU108:BU109">
+    <cfRule type="expression" dxfId="6" priority="34">
       <formula>$G108="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU109">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT203">
-    <cfRule type="expression" dxfId="32" priority="33">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BU203">
-    <cfRule type="expression" dxfId="31" priority="32">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT200:BU200">
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$G200="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV3:BW3">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>$G3="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV4:BW4">
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$G4="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV27:BW27">
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$G27="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV34:BW34">
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>$G34="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV35:BW37">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$G35="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV42:BW42">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$G42="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV44:BW44">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$G44="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV54:BW54">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$G54="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV57:BW58">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$G57="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV59:BW59">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$G59="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV154:BW154">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$G154="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV210:BW210">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$G210="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV41:BW41">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$G41="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV53">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BV198">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="5" priority="16">
       <formula>$G198="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV236">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>$G236="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW87">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>$G87="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW89">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>$G89="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW95">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>$G95="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW108">
-    <cfRule type="expression" dxfId="10" priority="11">
+  <conditionalFormatting sqref="BW108:BW109">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>$G108="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BW109">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$G109="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BW53">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$G53="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV203">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BW203">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$G203="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV200">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$G200="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BW200">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$G200="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N179">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$G179="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O179:P179">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$G179="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I179">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$G179="n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J179:K179">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G179="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62967,12 +57961,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010075BE519E6FCDE14FB22CB5D8F7193C4B" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a000ce14ad63b1e0207ef1c913f15b8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="892b2618-d58d-4f46-96dc-04311fd84de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a1a096f804483db61bde637f86ae48e" ns2:_="">
     <xsd:import namespace="892b2618-d58d-4f46-96dc-04311fd84de8"/>
@@ -63112,16 +58115,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21877E9D-EFBF-428C-9767-93AD326BBD46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89764341-8253-43CB-BA67-8359673E3ECF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -63137,7 +58139,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A169CCE-CE95-4580-B45B-7BEF8291308B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -63153,12 +58155,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21877E9D-EFBF-428C-9767-93AD326BBD46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>